--- a/carreras_peruanas.xlsx
+++ b/carreras_peruanas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. INVESTIGACIONES\3. ARTICULOS PENDIENTES\2024\2. Proyecto Educativo Masivo\Escala de inteligencia social\Social Intelligence Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\14. LIBRERIAS\ThesiStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F11D0B-BFEA-4C1E-BBD6-AF397ACC56F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E4E942-0804-43F5-99BE-0A91837406D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="630" windowWidth="14145" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Hoja1!$A$1:$B$75</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="104">
   <si>
     <t>Carrera</t>
   </si>
@@ -280,6 +280,66 @@
   </si>
   <si>
     <t>Terapia Física</t>
+  </si>
+  <si>
+    <t>Música</t>
+  </si>
+  <si>
+    <t>Facultad de Arte</t>
+  </si>
+  <si>
+    <t>Ing. Industrias Alimentarias</t>
+  </si>
+  <si>
+    <t>Sistemas</t>
+  </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Periodismo</t>
+  </si>
+  <si>
+    <t>Psico</t>
+  </si>
+  <si>
+    <t>Arquitectura</t>
+  </si>
+  <si>
+    <t>Medicina humana</t>
+  </si>
+  <si>
+    <t>Relaciones Internacionales</t>
+  </si>
+  <si>
+    <t>Comunicaciòn e imagen empresarial</t>
+  </si>
+  <si>
+    <t>Traducción e Interpretación Profesional</t>
+  </si>
+  <si>
+    <t>Facultad de Letras</t>
+  </si>
+  <si>
+    <t>Contabilidad</t>
+  </si>
+  <si>
+    <t>Ciencias Políticas</t>
+  </si>
+  <si>
+    <t>Diseño Gráfico Profesional</t>
+  </si>
+  <si>
+    <t>Diseño y gestión en moda</t>
+  </si>
+  <si>
+    <t>Educ.Inicial</t>
+  </si>
+  <si>
+    <t>Facultad de Ciencias de la Educación</t>
+  </si>
+  <si>
+    <t>Ingeneria</t>
   </si>
 </sst>
 </file>
@@ -328,11 +388,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -668,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,12 +1365,143 @@
         <v>73</v>
       </c>
     </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B76" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
-      <sortCondition ref="A1:A76"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
